--- a/接口文档/静态化api/静态化api.xlsx
+++ b/接口文档/静态化api/静态化api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>功能说明：</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v1/makeJsonFile</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">商户端-商品详情静态化
 </t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -153,7 +149,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>静态化内容</t>
+    <t>type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回格式：json、xml</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取静态化内容的url地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nologin/makeFile</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1345,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1375,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1412,35 +1428,47 @@
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">

--- a/接口文档/静态化api/静态化api.xlsx
+++ b/接口文档/静态化api/静态化api.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>功能说明：</t>
   </si>
@@ -171,6 +171,13 @@
   <si>
     <t>/nologin/makeFile</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成的文件名:{productId}.json</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1458,7 +1465,7 @@
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1467,64 +1474,72 @@
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="29" t="s">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
@@ -1549,17 +1564,24 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1567,9 +1589,9 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A18"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
